--- a/webApp/coupons.xlsx
+++ b/webApp/coupons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wazenshbair/SnT/EEthique/blockchain-based-sukuk/webApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wazenshbair/SnT/EEthique/blockchain-based-sukuk/sukuk-system-Github/webApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDDE7A-3A51-3745-8F54-CDE354B255DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B649D4-DA68-C14E-992B-B47BA93BEDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
+    <workbookView xWindow="12580" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,8 +462,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <f>1589324833+(60*6)</f>
-        <v>1589325193</v>
+        <v>1593640659</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -484,8 +483,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f>A2+(60*6)</f>
-        <v>1589325553</v>
+        <v>1593644259</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -505,8 +503,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A20" si="0">A3+(60*6)</f>
-        <v>1589325913</v>
+        <v>1593647859</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -526,8 +523,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <f t="shared" si="0"/>
-        <v>1589326273</v>
+        <v>1593651459</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -547,8 +543,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <f t="shared" si="0"/>
-        <v>1589326633</v>
+        <v>1593655059</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -568,8 +563,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>1589326993</v>
+        <v>1593658659</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -589,8 +583,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>1589327353</v>
+        <v>1593662259</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -610,8 +603,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>1589327713</v>
+        <v>1593665859</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -631,8 +623,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>1589328073</v>
+        <v>1593669459</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -652,8 +643,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>1589328433</v>
+        <v>1593673059</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -673,8 +663,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>1589328793</v>
+        <v>1593676659</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -694,8 +683,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>1589329153</v>
+        <v>1593680259</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -715,8 +703,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>1589329513</v>
+        <v>1593683859</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -736,8 +723,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>1589329873</v>
+        <v>1593687459</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -757,8 +743,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
-        <v>1589330233</v>
+        <v>1593691059</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -778,8 +763,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>1589330593</v>
+        <v>1593694659</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -799,8 +783,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>1589330953</v>
+        <v>1593698259</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -820,8 +803,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
-        <v>1589331313</v>
+        <v>1593701859</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -841,8 +823,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
-        <v>1589331673</v>
+        <v>1593705459</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -861,7 +842,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>1593643059</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>

--- a/webApp/coupons.xlsx
+++ b/webApp/coupons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wazenshbair/SnT/EEthique/blockchain-based-sukuk/sukuk-system-Github/webApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B649D4-DA68-C14E-992B-B47BA93BEDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3A85D-411F-DB42-B133-70CD23B2D34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12580" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
+    <workbookView xWindow="5960" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1593640659</v>
+        <v>1593981883</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1593644259</v>
+        <v>1593985483</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1593647859</v>
+        <v>1593989083</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1593651459</v>
+        <v>1593992683</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1593655059</v>
+        <v>1593996283</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1593658659</v>
+        <v>1593999883</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1593662259</v>
+        <v>1594003483</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1593665859</v>
+        <v>1594007083</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1593669459</v>
+        <v>1594010683</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1593673059</v>
+        <v>1594014283</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1593676659</v>
+        <v>1594017883</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1593680259</v>
+        <v>1594021483</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1593683859</v>
+        <v>1594025083</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1593687459</v>
+        <v>1594028683</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1593691059</v>
+        <v>1594032283</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1593694659</v>
+        <v>1594035883</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1593698259</v>
+        <v>1594039483</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1593701859</v>
+        <v>1594043083</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1593705459</v>
+        <v>1594046683</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1593643059</v>
+        <v>1593984283</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>

--- a/webApp/coupons.xlsx
+++ b/webApp/coupons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wazenshbair/SnT/EEthique/blockchain-based-sukuk/sukuk-system-Github/webApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F3A85D-411F-DB42-B133-70CD23B2D34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637B672-8EB9-9F4C-ACC6-F1864FF72254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
+    <workbookView xWindow="13760" yWindow="2080" windowWidth="27640" windowHeight="16940" xr2:uid="{A142830D-EA64-7D4F-85F9-35C5674F35FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,6 +108,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +430,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,393 +465,404 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1593981883</v>
+        <v>1594728000</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>208291.52475371765</v>
-      </c>
-      <c r="D2" s="4">
-        <v>347.15254125619612</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1569.4097186160548</v>
+        <v>208292</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2043.5927060834988</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9455.7808531501742</v>
       </c>
       <c r="F2" s="2">
-        <v>206722.1150351016</v>
+        <v>198836.21914684982</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1593985483</v>
+        <v>1595246400</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>206722.1150351016</v>
-      </c>
-      <c r="D3" s="4">
-        <v>344.53685839183601</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1572.025401480415</v>
+        <v>198836.21914684982</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1948.6400300527023</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9550.7335291809704</v>
       </c>
       <c r="F3" s="2">
-        <v>205150.08963362119</v>
+        <v>189285.48561766886</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>1593989083</v>
+        <v>1595764800</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>205150.08963362119</v>
-      </c>
-      <c r="D4" s="4">
-        <v>341.91681605603532</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1574.6454438162157</v>
+        <v>189285.48561766886</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1852.7338620971855</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9646.6396971364866</v>
       </c>
       <c r="F4" s="2">
-        <v>203575.44418980498</v>
+        <v>179638.84592053239</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>1593992683</v>
+        <v>1596283200</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>203575.44418980498</v>
-      </c>
-      <c r="D5" s="4">
-        <v>339.29240698300833</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1577.2698528892427</v>
+        <v>179638.84592053239</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1755.8646274804737</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9743.5089317531983</v>
       </c>
       <c r="F5" s="2">
-        <v>201998.17433691575</v>
+        <v>169895.33698877919</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>1593996283</v>
+        <v>1596801600</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>201998.17433691575</v>
-      </c>
-      <c r="D6" s="4">
-        <v>336.6636238948596</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1579.8986359773912</v>
+        <v>169895.33698877919</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1658.0226553188927</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9841.3509039147793</v>
       </c>
       <c r="F6" s="2">
-        <v>200418.27570093836</v>
+        <v>160053.98608486442</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>1593999883</v>
+        <v>1597320000</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>200418.27570093836</v>
-      </c>
-      <c r="D7" s="4">
-        <v>334.03045950156394</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1582.5318003706871</v>
+        <v>160053.98608486442</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1559.1981776160819</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9940.1753816175915</v>
       </c>
       <c r="F7" s="2">
-        <v>198835.74390056767</v>
+        <v>150113.81070324683</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>1594003483</v>
+        <v>1597838400</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>198835.74390056767</v>
-      </c>
-      <c r="D8" s="4">
-        <v>331.39290650094614</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1585.1693533713049</v>
+        <v>150113.81070324683</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1459.381328287812</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10039.99223094586</v>
       </c>
       <c r="F8" s="2">
-        <v>197250.57454719636</v>
+        <v>140073.81847230098</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1594007083</v>
+        <v>1598356800</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>197250.57454719636</v>
-      </c>
-      <c r="D9" s="4">
-        <v>328.75095757866058</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1587.8113022935904</v>
+        <v>140073.81847230098</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1358.5621421770093</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10140.811417056662</v>
       </c>
       <c r="F9" s="2">
-        <v>195662.76324490277</v>
+        <v>129933.00705524432</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1594010683</v>
+        <v>1598875200</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>195662.76324490277</v>
-      </c>
-      <c r="D10" s="4">
-        <v>326.10460540817127</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1590.4576544640797</v>
+        <v>129933.00705524432</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1256.7305540588909</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10242.643005174781</v>
       </c>
       <c r="F10" s="2">
-        <v>194072.30559043869</v>
+        <v>119690.36405006953</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1594014283</v>
+        <v>1599393600</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>194072.30559043869</v>
-      </c>
-      <c r="D11" s="4">
-        <v>323.45384265073113</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1593.1084172215199</v>
+        <v>119690.36405006953</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1153.8763976361079</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10345.497161597565</v>
       </c>
       <c r="F11" s="2">
-        <v>192479.19717321717</v>
+        <v>109344.86688847197</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1594017883</v>
+        <v>1599912000</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>192479.19717321717</v>
-      </c>
-      <c r="D12" s="4">
-        <v>320.79866195536198</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1595.763597916889</v>
+        <v>109344.86688847197</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1049.9894045238011</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10449.384154709871</v>
       </c>
       <c r="F12" s="2">
-        <v>190883.43357530027</v>
+        <v>98895.482733762095</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1594021483</v>
+        <v>1600430400</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>190883.43357530027</v>
-      </c>
-      <c r="D13" s="4">
-        <v>318.13905595883381</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1598.4232039134172</v>
+        <v>98895.482733762095</v>
+      </c>
+      <c r="D13" s="8">
+        <v>945.05920322446048</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10554.314356009212</v>
       </c>
       <c r="F13" s="2">
-        <v>189285.01037138686</v>
+        <v>88341.168377752881</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1594025083</v>
+        <v>1600948800</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>189285.01037138686</v>
-      </c>
-      <c r="D14" s="4">
-        <v>315.47501728564475</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1601.0872425866062</v>
+        <v>88341.168377752881</v>
+      </c>
+      <c r="D14" s="8">
+        <v>839.07531809249303</v>
+      </c>
+      <c r="E14" s="8">
+        <v>10660.298241141179</v>
       </c>
       <c r="F14" s="2">
-        <v>187683.92312880026</v>
+        <v>77680.870136611702</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1594028683</v>
+        <v>1601467200</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>187683.92312880026</v>
-      </c>
-      <c r="D15" s="4">
-        <v>312.80653854800045</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1603.7557213242505</v>
+        <v>77680.870136611702</v>
+      </c>
+      <c r="D15" s="8">
+        <v>732.02716828839482</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10767.346390945278</v>
       </c>
       <c r="F15" s="2">
-        <v>186080.16740747602</v>
+        <v>66913.523745666418</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1594032283</v>
+        <v>1601985600</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>186080.16740747602</v>
-      </c>
-      <c r="D16" s="4">
-        <v>310.13361234579338</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1606.4286475264576</v>
+        <v>66913.523745666418</v>
+      </c>
+      <c r="D16" s="8">
+        <v>623.90406672241647</v>
+      </c>
+      <c r="E16" s="8">
+        <v>10875.469492511256</v>
       </c>
       <c r="F16" s="2">
-        <v>184473.73875994957</v>
+        <v>56038.054253155162</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1594035883</v>
+        <v>1602504000</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>184473.73875994957</v>
-      </c>
-      <c r="D17" s="4">
-        <v>307.45623126658262</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1609.1060286056684</v>
+        <v>56038.054253155162</v>
+      </c>
+      <c r="D17" s="8">
+        <v>514.69521898762571</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10984.678340246046</v>
       </c>
       <c r="F17" s="2">
-        <v>182864.63273134391</v>
+        <v>45053.37591290912</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1594039483</v>
+        <v>1603022400</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>182864.63273134391</v>
-      </c>
-      <c r="D18" s="4">
-        <v>304.77438788557316</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1611.7878719866778</v>
+        <v>45053.37591290912</v>
+      </c>
+      <c r="D18" s="8">
+        <v>404.38972228225271</v>
+      </c>
+      <c r="E18" s="8">
+        <v>11094.98383695142</v>
       </c>
       <c r="F18" s="2">
-        <v>181252.84485935722</v>
+        <v>33958.392075957701</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1594043083</v>
+        <v>1603540800</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>181252.84485935722</v>
-      </c>
-      <c r="D19" s="4">
-        <v>302.08807476559537</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1614.4741851066556</v>
+        <v>33958.392075957701</v>
+      </c>
+      <c r="D19" s="8">
+        <v>292.97656432121607</v>
+      </c>
+      <c r="E19" s="8">
+        <v>11206.396994912457</v>
       </c>
       <c r="F19" s="2">
-        <v>179638.37067425056</v>
+        <v>22751.995081045243</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1594046683</v>
+        <v>1604059200</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>179638.37067425056</v>
-      </c>
-      <c r="D20" s="4">
-        <v>299.39728445708425</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1617.1649754151667</v>
+        <v>22751.995081045243</v>
+      </c>
+      <c r="D20" s="8">
+        <v>180.44462223671709</v>
+      </c>
+      <c r="E20" s="8">
+        <v>11318.928936996956</v>
       </c>
       <c r="F20" s="2">
-        <v>178021.2056988354</v>
+        <v>11433.066144048287</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>1593984283</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+        <v>1604577600</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11433.066144048287</v>
+      </c>
+      <c r="D21" s="8">
+        <v>66.782661467795478</v>
+      </c>
+      <c r="E21" s="8">
+        <v>11432.590897765876</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.47524628241080791</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
